--- a/Transmit realtime data/MCU_Slave_3/Scale_data.xlsx
+++ b/Transmit realtime data/MCU_Slave_3/Scale_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LePhap\tai lieu hoc tap\University\Project of Robot &amp; AI and Final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LePhap\tai lieu hoc tap\University\Project of Robot &amp; AI and Final project\Xe_dap\CyclingAIFirmware\Transmit realtime data\MCU_Slave_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D6406-B977-4334-9B81-B4F00461BAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E100DCD-FB9D-4C13-ABEE-77D335B726C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F0EF7D3-047D-4AE6-9310-3FE38DE60019}"/>
   </bookViews>
@@ -2206,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806A5EAC-21C1-419A-9B9E-E2F6829E529F}">
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,11 +2317,23 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f>F12/D9</f>
-        <v>0.35077484699903383</v>
+        <v>0.39860778068072028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f>B5-16.74</f>
+        <v>1.4600000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>B17+29.33</f>
+        <v>30.79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2408,11 +2420,11 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f>E28/D26</f>
-        <v>0.36720136951559856</v>
+        <v>0.56492518387015156</v>
       </c>
     </row>
   </sheetData>
